--- a/biology/Botanique/Bambusa_multiplex/Bambusa_multiplex.xlsx
+++ b/biology/Botanique/Bambusa_multiplex/Bambusa_multiplex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bambusa multiplex est une espèce de bambou originaire de l'Asie du Sud-Est : elle est présente dans plusieurs provinces de Chine, au Népal, au Bhoutan, dans l'État indien d'Assam, au Sri Lanka, à Taïwan, et dans le nord de la péninsule indochinoise. Les cannes de ce bambou peuvent atteindre une hauteur de 9 m.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En plus de sa région d'origine, Bambusa multiplex a colonisé de nombreux territoires ; la plante se rencontre en Iraq, à Madagascar, à l'île Maurice, aux Seychelles, dans le sous-continent indien, dans certaines régions d'Amérique du Sud, aux Antilles, dans le sud des États-Unis[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En plus de sa région d'origine, Bambusa multiplex a colonisé de nombreux territoires ; la plante se rencontre en Iraq, à Madagascar, à l'île Maurice, aux Seychelles, dans le sous-continent indien, dans certaines régions d'Amérique du Sud, aux Antilles, dans le sud des États-Unis,.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-L'espèce a été décrite à plusieurs reprises et possède à ce titre de nombreux synonymes[4] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite à plusieurs reprises et possède à ce titre de nombreux synonymes :
 Arundo multiplex Lour.
 Arundarbor multiplex (Lour.) Kuntze
 Bambusa multiplex var. normalis Sasaki
@@ -573,10 +592,45 @@
 Bambusa strigosa T.H.Wen
 Bambusa albifolia T.H.Wen &amp; J.J.Hua
 Bambusa pubivaginata W.T.Lin &amp; Z.M.Wu
-Liste des sous-espèces et variétés
-Selon The Plant List            (5 octobre 2016)[1] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bambusa_multiplex</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bambusa_multiplex</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces et variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (5 octobre 2016) :
 variété Bambusa multiplex var. riviereorum Maire
-Selon Tropicos                                           (5 octobre 2016)[5] (liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (5 octobre 2016) (liste brute contenant possiblement des synonymes) :
 sous-espèce Bambusa multiplex cv alphonse-karri Rob. A. Young
 sous-espèce Bambusa multiplex cv fernleaf Rob. A. Young
 sous-espèce Bambusa multiplex cv silverstripe Rob. A. Young
